--- a/reports/air_raw_data/date_bussnies_price_weigth.xlsx
+++ b/reports/air_raw_data/date_bussnies_price_weigth.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75775.8</v>
+        <v>81868</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>91539.495</v>
+        <v>95576</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>86761</v>
+        <v>110831</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>91658</v>
+        <v>100523</v>
       </c>
     </row>
     <row r="7">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69895.25</v>
+        <v>72062</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>64341.15</v>
+        <v>73188</v>
       </c>
     </row>
     <row r="9">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>137803.9</v>
+        <v>159011</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>94099.84999999999</v>
+        <v>96103</v>
       </c>
     </row>
     <row r="12">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>42034.5</v>
+        <v>52267</v>
       </c>
     </row>
     <row r="13">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>157668.9</v>
+        <v>169885</v>
       </c>
     </row>
     <row r="15">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>121994.94</v>
+        <v>125531</v>
       </c>
     </row>
     <row r="16">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24773.3</v>
+        <v>26563</v>
       </c>
     </row>
     <row r="17">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>100172.282</v>
+        <v>106157</v>
       </c>
     </row>
     <row r="19">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>85267.39999999999</v>
+        <v>89069</v>
       </c>
     </row>
     <row r="20">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>33503.5</v>
+        <v>38590</v>
       </c>
     </row>
     <row r="21">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>144971.22</v>
+        <v>151723</v>
       </c>
     </row>
     <row r="23">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>107410.24</v>
+        <v>110424</v>
       </c>
     </row>
     <row r="24">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>25098.75</v>
+        <v>27751</v>
       </c>
     </row>
     <row r="25">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>102952.904</v>
+        <v>109023</v>
       </c>
     </row>
     <row r="27">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>61650.44</v>
+        <v>63925</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>53966.2</v>
+        <v>62547</v>
       </c>
     </row>
     <row r="29">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>170902.9</v>
+        <v>187602</v>
       </c>
     </row>
     <row r="31">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>85721.12</v>
+        <v>89303</v>
       </c>
     </row>
     <row r="32">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>25779</v>
+        <v>28430</v>
       </c>
     </row>
     <row r="33">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>191949.2</v>
+        <v>209654</v>
       </c>
     </row>
     <row r="35">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>77454.60000000001</v>
+        <v>82406</v>
       </c>
     </row>
     <row r="36">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>50927</v>
+        <v>61858</v>
       </c>
     </row>
     <row r="37">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>220845.125</v>
+        <v>244385</v>
       </c>
     </row>
     <row r="39">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>58611.5</v>
+        <v>66116</v>
       </c>
     </row>
     <row r="40">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>36123</v>
+        <v>39220</v>
       </c>
     </row>
     <row r="41">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>156892.69</v>
+        <v>170306</v>
       </c>
     </row>
     <row r="43">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>78611.89999999999</v>
+        <v>120018</v>
       </c>
     </row>
     <row r="44">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>237899</v>
+        <v>238522</v>
       </c>
     </row>
     <row r="45">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>110369.22</v>
+        <v>117956</v>
       </c>
     </row>
     <row r="47">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>112468.22</v>
+        <v>115242</v>
       </c>
     </row>
     <row r="48">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31647.55</v>
+        <v>33802</v>
       </c>
     </row>
     <row r="49">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>113934.35</v>
+        <v>121705</v>
       </c>
     </row>
     <row r="51">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>63371.65</v>
+        <v>67253</v>
       </c>
     </row>
     <row r="52">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21164.26</v>
+        <v>22563</v>
       </c>
     </row>
     <row r="53">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>112731.3</v>
+        <v>122126</v>
       </c>
     </row>
     <row r="55">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>68892.2</v>
+        <v>71728</v>
       </c>
     </row>
     <row r="56">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>20428</v>
+        <v>26067</v>
       </c>
     </row>
     <row r="57">
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>185400.6</v>
+        <v>196071</v>
       </c>
     </row>
     <row r="59">
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>122247.66</v>
+        <v>125093</v>
       </c>
     </row>
     <row r="60">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>40156</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="61">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>141918.75</v>
+        <v>156295</v>
       </c>
     </row>
     <row r="63">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>109525.18</v>
+        <v>112763</v>
       </c>
     </row>
     <row r="64">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>17169.4</v>
+        <v>21145</v>
       </c>
     </row>
     <row r="65">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>132051.92</v>
+        <v>141046</v>
       </c>
     </row>
     <row r="67">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>152866.9</v>
+        <v>158300</v>
       </c>
     </row>
     <row r="68">
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>77835.78</v>
+        <v>80856</v>
       </c>
     </row>
     <row r="69">
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>126850.56</v>
+        <v>135093</v>
       </c>
     </row>
     <row r="71">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>89701.41</v>
+        <v>94915</v>
       </c>
     </row>
     <row r="72">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>53852</v>
+        <v>57069</v>
       </c>
     </row>
     <row r="73">
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>141189.55</v>
+        <v>153207</v>
       </c>
     </row>
     <row r="75">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>73057.03999999999</v>
+        <v>76992</v>
       </c>
     </row>
     <row r="76">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>46054.10000000001</v>
+        <v>50795</v>
       </c>
     </row>
     <row r="77">
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>155724.21</v>
+        <v>164885</v>
       </c>
     </row>
     <row r="79">
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>172238.96</v>
+        <v>177433</v>
       </c>
     </row>
     <row r="80">
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>29623.44</v>
+        <v>30222</v>
       </c>
     </row>
     <row r="81">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>165127.75</v>
+        <v>173732</v>
       </c>
     </row>
     <row r="83">
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>62431.76</v>
+        <v>64589</v>
       </c>
     </row>
     <row r="84">
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>20709.08</v>
+        <v>20966</v>
       </c>
     </row>
     <row r="85">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>191806.85</v>
+        <v>217921</v>
       </c>
     </row>
     <row r="87">
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>73512.2</v>
+        <v>81553</v>
       </c>
     </row>
     <row r="88">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>24255.7</v>
+        <v>25116</v>
       </c>
     </row>
     <row r="89">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>173792.15</v>
+        <v>187947</v>
       </c>
     </row>
     <row r="91">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>70483.16</v>
+        <v>75757</v>
       </c>
     </row>
     <row r="92">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>28465</v>
+        <v>30468</v>
       </c>
     </row>
     <row r="93">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>133108.32</v>
+        <v>143368</v>
       </c>
     </row>
     <row r="95">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>69911.2</v>
+        <v>76341</v>
       </c>
     </row>
     <row r="96">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>41062.6</v>
+        <v>42722</v>
       </c>
     </row>
     <row r="97">
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>177171</v>
+        <v>191945</v>
       </c>
     </row>
     <row r="99">
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>145899.3</v>
+        <v>152414</v>
       </c>
     </row>
     <row r="100">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>19053.5</v>
+        <v>20457</v>
       </c>
     </row>
     <row r="101">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>183860.96</v>
+        <v>199674</v>
       </c>
     </row>
     <row r="103">
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>82051.39999999999</v>
+        <v>86307</v>
       </c>
     </row>
     <row r="104">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>29438.58</v>
+        <v>31363</v>
       </c>
     </row>
     <row r="105">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>237077.86</v>
+        <v>257122</v>
       </c>
     </row>
     <row r="107">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>111145.98</v>
+        <v>114698</v>
       </c>
     </row>
     <row r="108">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>29997</v>
+        <v>32976</v>
       </c>
     </row>
     <row r="109">
